--- a/biology/Botanique/Pierre_Tranquille_Husnot/Pierre_Tranquille_Husnot.xlsx
+++ b/biology/Botanique/Pierre_Tranquille_Husnot/Pierre_Tranquille_Husnot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Tranquille Husnot est un botaniste français spécialiste des mousses, né le 21 avril 1840 à Cahan (Orne)[1] où il est mort le 25 mai 1929.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Tranquille Husnot est un botaniste français spécialiste des mousses, né le 21 avril 1840 à Cahan (Orne) où il est mort le 25 mai 1929.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ingénieur agricole diplômé de l'École d'agriculture de Grignon, Tranquille Husnot, voyage en Europe, en Afrique et en Amérique et plus particulièrement aux Antilles et aux Iles Canaries, de 1862 à 1875. À son retour, il reprend la ferme familiale et devient le correspondant de nombreuses sociétés botaniques. En 1874, il fonde la Revue Bryologique dont il sera à la fois le rédacteur en chef,  le directeur et l'éditeur jusqu'à la fin de 1927. À partir de mars 1928, c'est Pierre Allorge, botaniste au Muséum d'histoire naturelle, qui reprendra la publication de la revue.
 Il fut maire de Cahan de 1865 à sa mort.
@@ -543,7 +557,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait paraître Flore analytique et descriptive des Mousses du Nord-Ouest de la France en 1873 (prix Bouctot de l'Académie des sciences, belles-lettres et arts de Rouen), Muscologia Gallica, Flore analytique et descriptive des mousses de France et des contrées voisines qui paraît de 1884 à 1892 et est réédité en 1922, et Hepatologia Gallica, Flore analytique et descriptive des hépatiques de France et de Belgique paru de 1875 à 1881. De 1896 à 1899, il fait paraître Graminées. Descriptions, figures et usages des graminées spontanées et cultivées de France, Belgique, Îles Britanniques, Suisse. 
 </t>
@@ -574,7 +590,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lauréat du prix Bouctot décerné par l'Académie des Sciences, des Belles-Lettres et Arts de Rouen (1873)
 Lauréat du prix Desmazières décerné par l'Académie des Sciences pour ses travaux botaniques sur les cryptogames (1882)
